--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dosa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dosa\Documents\Unity\unreal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BEF956-781D-47BD-8F34-83ABF7FDD45C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6FCB6-95CB-43D6-BBD7-87815796DC27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{669C8E24-75CB-4E3D-A2DF-96D87D06E9E3}"/>
+    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{669C8E24-75CB-4E3D-A2DF-96D87D06E9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Feladatok</t>
   </si>
@@ -117,6 +117,27 @@
   </si>
   <si>
     <t>5. képességek</t>
+  </si>
+  <si>
+    <t>torony osztály</t>
+  </si>
+  <si>
+    <t>István</t>
+  </si>
+  <si>
+    <t>enemy osztály</t>
+  </si>
+  <si>
+    <t>gábor</t>
+  </si>
+  <si>
+    <t>név:</t>
+  </si>
+  <si>
+    <t>feladat:</t>
+  </si>
+  <si>
+    <t>Bendegúz</t>
   </si>
 </sst>
 </file>
@@ -133,12 +154,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -471,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D11C990-7122-4C1B-81EA-9CE22A3C9F0F}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,27 +611,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173C6BDA-71E5-4BE9-8D99-FC4E7DA232B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83B4ABC-C832-4ECC-8B34-0CC8CE22F526}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,6 +678,15 @@
         <v>1. Pályák betöltése:</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>CONCATENATE(Munka1!B3," első pálya:")</f>
+        <v>2. Pálya design első pálya:</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
